--- a/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
+++ b/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6299CF-BBF2-4FC4-8BBF-4FFF0B6998B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39A2B4-ED3A-44E7-9500-60B89B02AE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB6FB67D-65A7-4185-B381-71C65134F7A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BB6FB67D-65A7-4185-B381-71C65134F7A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>English (US)</t>
   </si>
@@ -153,56 +153,65 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>You must select one or more shipment identifiers in order to proceed.</t>
-  </si>
-  <si>
     <t>APAC</t>
   </si>
   <si>
-    <t>您必须选择一个或多个装运标识符才能继续。</t>
-  </si>
-  <si>
     <t>CANADA</t>
   </si>
   <si>
-    <t>Vous devez sélectionner un ou plusieurs identificateurs d'expédition afin de continuer.</t>
-  </si>
-  <si>
     <t>EU</t>
   </si>
   <si>
-    <t>Sie müssen eine oder mehrere Sendungskennungen auswählen, um fortzufahren.</t>
-  </si>
-  <si>
-    <t>È necessario selezionare uno o più identificatori di spedizione per procedere.</t>
-  </si>
-  <si>
-    <t>계속하려면 하나 이상의 발송 식별자를 선택해야합니다.</t>
-  </si>
-  <si>
-    <t>Musisz wybrać jedną lub więcej identyfikatorów przesyłek, aby kontynuować.</t>
-  </si>
-  <si>
     <t>LATAM</t>
   </si>
   <si>
-    <t>Você deve selecionar um ou mais identificadores de embarque para prosseguir.</t>
-  </si>
-  <si>
-    <t>Debe seleccionar uno o más identificadores de envío para continuar.</t>
-  </si>
-  <si>
-    <t>คุณต้องเลือกตัวระบุการจัดส่งอย่างน้อยหนึ่งรายการเพื่อดำเนินการต่อ</t>
-  </si>
-  <si>
-    <t>Bạn phải chọn một hoặc nhiều định danh giao hàng để tiến hành.</t>
+    <t>Boon See</t>
+  </si>
+  <si>
+    <t>Casos não podem ser atribuídos a essa fila ou usuário.</t>
+  </si>
+  <si>
+    <t>Les requêtes ne peuvent être attribuées à cette liste ou cet utilisateur.</t>
+  </si>
+  <si>
+    <t>Cases können nicht in diese Warteschlange oder Nutzer umgeroutet werden.</t>
+  </si>
+  <si>
+    <t>Non è possibile assegnare case a questa coda / utente.</t>
+  </si>
+  <si>
+    <t>Sprawy nie mogą być przypisane do tej kolejki lub użytkownika.</t>
+  </si>
+  <si>
+    <t>Casos não podem ser atribuídos a esta fila.</t>
+  </si>
+  <si>
+    <t>Casos no pueden ser asignados a esta cola o usuario.</t>
+  </si>
+  <si>
+    <t>No se pueden asignar casos a esta cola o usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANADA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">APAC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATAM </t>
+  </si>
+  <si>
+    <t>Cases cannot be assigned to this queue or user.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +265,21 @@
       <name val="Segoe UI Semibold"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +334,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -388,11 +416,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -427,9 +470,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -447,6 +487,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,24 +814,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FF1B1-6C1A-4196-ADBF-C0BFC5A1002F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:4" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -787,124 +839,116 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -913,26 +957,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>49</v>
+      <c r="B13" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>29</v>
@@ -941,31 +985,45 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -978,177 +1036,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FC5FC7-7338-489B-ADBF-40BB225DA056}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="70.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="69.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:3" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
+      <c r="C2" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="33.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
+    <row r="10" spans="1:3" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
+      <c r="B16" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
+++ b/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED39A2B4-ED3A-44E7-9500-60B89B02AE7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16003B-16AB-4A37-AECF-5DB41D51F880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BB6FB67D-65A7-4185-B381-71C65134F7A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB6FB67D-65A7-4185-B381-71C65134F7A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,135 +33,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>English (US)</t>
   </si>
   <si>
-    <t>Applicable</t>
-  </si>
-  <si>
-    <t>Additional Info</t>
-  </si>
-  <si>
     <t>Chinese (Simplified)</t>
   </si>
   <si>
-    <t>适用的</t>
-  </si>
-  <si>
-    <t>附加信息</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
-    <t>En vigueur</t>
-  </si>
-  <si>
-    <t>Information additionnelle</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
-    <t>Zutreffend</t>
-  </si>
-  <si>
-    <t>Zusätzliche Information</t>
-  </si>
-  <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Εφαρμόσιμος</t>
-  </si>
-  <si>
-    <t>Πρόσθετες πληροφορίες</t>
-  </si>
-  <si>
     <t>Italian</t>
   </si>
   <si>
-    <t>Applicabile</t>
-  </si>
-  <si>
-    <t>Informazioni addizionali</t>
-  </si>
-  <si>
     <t>Korean</t>
   </si>
   <si>
-    <t>해당되는</t>
-  </si>
-  <si>
-    <t>추가 정보</t>
-  </si>
-  <si>
     <t>Polish</t>
   </si>
   <si>
-    <t>Odpowiedni</t>
-  </si>
-  <si>
-    <t>Dodatkowe informacje</t>
-  </si>
-  <si>
     <t>Portuguese (Brazil)</t>
   </si>
   <si>
-    <t>Aplicável</t>
-  </si>
-  <si>
-    <t>Informação adicional</t>
-  </si>
-  <si>
     <t>Portuguese (Europe)</t>
   </si>
   <si>
     <t>Spanish (Europe)</t>
   </si>
   <si>
-    <t>Aplicable</t>
-  </si>
-  <si>
-    <t>Información adicional</t>
-  </si>
-  <si>
     <t>Spanish (Mexico)</t>
   </si>
   <si>
     <t>Thai</t>
   </si>
   <si>
-    <t>ใช้บังคับได้</t>
-  </si>
-  <si>
-    <t>ข้อมูลเพิ่มเติม</t>
-  </si>
-  <si>
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>Áp dụng</t>
-  </si>
-  <si>
-    <t>Thông tin bổ sung</t>
-  </si>
-  <si>
     <t>ORIGINAL</t>
-  </si>
-  <si>
-    <t>APAC</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>LATAM</t>
   </si>
   <si>
     <t>Boon See</t>
@@ -211,33 +123,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,7 +171,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,12 +192,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,58 +251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD4D4D4"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD4D4D4"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFD4D4D4"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD4D4D4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFD1D1D1"/>
       </left>
@@ -435,69 +269,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -813,231 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12FF1B1-6C1A-4196-ADBF-C0BFC5A1002F}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:4" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FC5FC7-7338-489B-ADBF-40BB225DA056}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,158 +630,158 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>56</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="14" t="s">
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="15" t="s">
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="15" t="s">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>51</v>
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>43</v>
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
+++ b/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16003B-16AB-4A37-AECF-5DB41D51F880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC10B0-68EC-4995-9261-DB57AADF546D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB6FB67D-65A7-4185-B381-71C65134F7A7}"/>
   </bookViews>
@@ -104,19 +104,19 @@
     <t>No se pueden asignar casos a esta cola o usuario.</t>
   </si>
   <si>
-    <t xml:space="preserve">CANADA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">APAC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATAM </t>
-  </si>
-  <si>
     <t>Cases cannot be assigned to this queue or user.</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>LATAM</t>
   </si>
 </sst>
 </file>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FC5FC7-7338-489B-ADBF-40BB225DA056}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>14</v>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>14</v>
@@ -726,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>15</v>
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>22</v>
@@ -770,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -781,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
+++ b/scripts/trans/TranslationRequestExcels/shipmentIdentifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC10B0-68EC-4995-9261-DB57AADF546D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CFB6D2-3086-4FFB-827E-7FEFFC0BAD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB6FB67D-65A7-4185-B381-71C65134F7A7}"/>
   </bookViews>
@@ -618,7 +618,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
